--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.319636</v>
+        <v>54.86839566666666</v>
       </c>
       <c r="H2">
-        <v>171.958908</v>
+        <v>164.605187</v>
       </c>
       <c r="I2">
-        <v>0.5476981520382651</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="J2">
-        <v>0.547698152038265</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>8800.227388984356</v>
+        <v>7994.366107298641</v>
       </c>
       <c r="R2">
-        <v>79202.04650085921</v>
+        <v>71949.29496568778</v>
       </c>
       <c r="S2">
-        <v>0.1737411894704793</v>
+        <v>0.1768552711081317</v>
       </c>
       <c r="T2">
-        <v>0.1737411894704793</v>
+        <v>0.1768552711081317</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.319636</v>
+        <v>54.86839566666666</v>
       </c>
       <c r="H3">
-        <v>171.958908</v>
+        <v>164.605187</v>
       </c>
       <c r="I3">
-        <v>0.5476981520382651</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="J3">
-        <v>0.547698152038265</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>9675.537513761565</v>
+        <v>9261.768874330355</v>
       </c>
       <c r="R3">
-        <v>87079.83762385408</v>
+        <v>83355.91986897321</v>
       </c>
       <c r="S3">
-        <v>0.1910222681872302</v>
+        <v>0.2048933740619044</v>
       </c>
       <c r="T3">
-        <v>0.1910222681872301</v>
+        <v>0.2048933740619044</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.319636</v>
+        <v>54.86839566666666</v>
       </c>
       <c r="H4">
-        <v>171.958908</v>
+        <v>164.605187</v>
       </c>
       <c r="I4">
-        <v>0.5476981520382651</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="J4">
-        <v>0.547698152038265</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>5362.978359547028</v>
+        <v>7030.076549499197</v>
       </c>
       <c r="R4">
-        <v>48266.80523592325</v>
+        <v>63270.68894549277</v>
       </c>
       <c r="S4">
-        <v>0.1058802458284748</v>
+        <v>0.155522786595612</v>
       </c>
       <c r="T4">
-        <v>0.1058802458284747</v>
+        <v>0.155522786595612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.319636</v>
+        <v>54.86839566666666</v>
       </c>
       <c r="H5">
-        <v>171.958908</v>
+        <v>164.605187</v>
       </c>
       <c r="I5">
-        <v>0.5476981520382651</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="J5">
-        <v>0.547698152038265</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>3902.912548588974</v>
+        <v>3608.204902038924</v>
       </c>
       <c r="R5">
-        <v>35126.21293730077</v>
+        <v>32473.84411835032</v>
       </c>
       <c r="S5">
-        <v>0.07705444855208088</v>
+        <v>0.07982247092501658</v>
       </c>
       <c r="T5">
-        <v>0.07705444855208086</v>
+        <v>0.07982247092501658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.925553</v>
       </c>
       <c r="I6">
-        <v>0.05709382762749331</v>
+        <v>0.06720170646055251</v>
       </c>
       <c r="J6">
-        <v>0.05709382762749329</v>
+        <v>0.0672017064605525</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>917.3641790821951</v>
+        <v>870.5888068872671</v>
       </c>
       <c r="R6">
-        <v>8256.277611739755</v>
+        <v>7835.299261985404</v>
       </c>
       <c r="S6">
-        <v>0.01811134378764559</v>
+        <v>0.01925959074168291</v>
       </c>
       <c r="T6">
-        <v>0.01811134378764558</v>
+        <v>0.01925959074168291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.925553</v>
       </c>
       <c r="I7">
-        <v>0.05709382762749331</v>
+        <v>0.06720170646055251</v>
       </c>
       <c r="J7">
-        <v>0.05709382762749329</v>
+        <v>0.0672017064605525</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>1008.609338845192</v>
@@ -883,10 +883,10 @@
         <v>9077.484049606726</v>
       </c>
       <c r="S7">
-        <v>0.01991277935174145</v>
+        <v>0.02231294835256616</v>
       </c>
       <c r="T7">
-        <v>0.01991277935174145</v>
+        <v>0.02231294835256615</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.925553</v>
       </c>
       <c r="I8">
-        <v>0.05709382762749331</v>
+        <v>0.06720170646055251</v>
       </c>
       <c r="J8">
-        <v>0.05709382762749329</v>
+        <v>0.0672017064605525</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>559.0542178943897</v>
+        <v>765.5773920545104</v>
       </c>
       <c r="R8">
-        <v>5031.487961049507</v>
+        <v>6890.196528490593</v>
       </c>
       <c r="S8">
-        <v>0.01103729943581262</v>
+        <v>0.01693647693998448</v>
       </c>
       <c r="T8">
-        <v>0.01103729943581261</v>
+        <v>0.01693647693998447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>17.925553</v>
       </c>
       <c r="I9">
-        <v>0.05709382762749331</v>
+        <v>0.06720170646055251</v>
       </c>
       <c r="J9">
-        <v>0.05709382762749329</v>
+        <v>0.0672017064605525</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>406.8522332329346</v>
+        <v>392.9345689838957</v>
       </c>
       <c r="R9">
-        <v>3661.670099096411</v>
+        <v>3536.411120855061</v>
       </c>
       <c r="S9">
-        <v>0.008032405052293651</v>
+        <v>0.008692690426318973</v>
       </c>
       <c r="T9">
-        <v>0.00803240505229365</v>
+        <v>0.008692690426318971</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.037676333333332</v>
+        <v>4.832157666666667</v>
       </c>
       <c r="H10">
-        <v>27.113029</v>
+        <v>14.496473</v>
       </c>
       <c r="I10">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="J10">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>1387.545566433389</v>
+        <v>704.048970380076</v>
       </c>
       <c r="R10">
-        <v>12487.91009790051</v>
+        <v>6336.440733420684</v>
       </c>
       <c r="S10">
-        <v>0.02739404409690482</v>
+        <v>0.01557531514803791</v>
       </c>
       <c r="T10">
-        <v>0.02739404409690482</v>
+        <v>0.01557531514803791</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.037676333333332</v>
+        <v>4.832157666666667</v>
       </c>
       <c r="H11">
-        <v>27.113029</v>
+        <v>14.496473</v>
       </c>
       <c r="I11">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="J11">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>1525.557077864237</v>
+        <v>815.6667773717874</v>
       </c>
       <c r="R11">
-        <v>13730.01370077813</v>
+        <v>7341.000996346086</v>
       </c>
       <c r="S11">
-        <v>0.03011877870849324</v>
+        <v>0.01804457878333627</v>
       </c>
       <c r="T11">
-        <v>0.03011877870849324</v>
+        <v>0.01804457878333627</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.037676333333332</v>
+        <v>4.832157666666667</v>
       </c>
       <c r="H12">
-        <v>27.113029</v>
+        <v>14.496473</v>
       </c>
       <c r="I12">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="J12">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>845.5891554555055</v>
+        <v>619.1257805730526</v>
       </c>
       <c r="R12">
-        <v>7610.30239909955</v>
+        <v>5572.132025157473</v>
       </c>
       <c r="S12">
-        <v>0.01669430336039681</v>
+        <v>0.01369660287052832</v>
       </c>
       <c r="T12">
-        <v>0.0166943033603968</v>
+        <v>0.01369660287052832</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.037676333333332</v>
+        <v>4.832157666666667</v>
       </c>
       <c r="H13">
-        <v>27.113029</v>
+        <v>14.496473</v>
       </c>
       <c r="I13">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="J13">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>615.3783037186811</v>
+        <v>317.7679020581223</v>
       </c>
       <c r="R13">
-        <v>5538.40473346813</v>
+        <v>2859.911118523101</v>
       </c>
       <c r="S13">
-        <v>0.01214929498256395</v>
+        <v>0.007029816712627581</v>
       </c>
       <c r="T13">
-        <v>0.01214929498256395</v>
+        <v>0.007029816712627581</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>32.32302533333333</v>
+        <v>23.238438</v>
       </c>
       <c r="H14">
-        <v>96.969076</v>
+        <v>69.71531400000001</v>
       </c>
       <c r="I14">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="J14">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>4962.522316667105</v>
+        <v>3385.857721490165</v>
       </c>
       <c r="R14">
-        <v>44662.70085000395</v>
+        <v>30472.71949341149</v>
       </c>
       <c r="S14">
-        <v>0.0979741195268192</v>
+        <v>0.07490359801273172</v>
       </c>
       <c r="T14">
-        <v>0.09797411952681918</v>
+        <v>0.07490359801273172</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>32.32302533333333</v>
+        <v>23.238438</v>
       </c>
       <c r="H15">
-        <v>96.969076</v>
+        <v>69.71531400000001</v>
       </c>
       <c r="I15">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="J15">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>5456.117065553802</v>
+        <v>3922.641424837769</v>
       </c>
       <c r="R15">
-        <v>49105.05358998421</v>
+        <v>35303.77282353992</v>
       </c>
       <c r="S15">
-        <v>0.1077190653103002</v>
+        <v>0.08677858923877729</v>
       </c>
       <c r="T15">
-        <v>0.1077190653103002</v>
+        <v>0.08677858923877729</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>32.32302533333333</v>
+        <v>23.238438</v>
       </c>
       <c r="H16">
-        <v>96.969076</v>
+        <v>69.71531400000001</v>
       </c>
       <c r="I16">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="J16">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>3024.228649633383</v>
+        <v>2977.451701399745</v>
       </c>
       <c r="R16">
-        <v>27218.05784670045</v>
+        <v>26797.0653125977</v>
       </c>
       <c r="S16">
-        <v>0.05970676206341142</v>
+        <v>0.06586864058948569</v>
       </c>
       <c r="T16">
-        <v>0.0597067620634114</v>
+        <v>0.06586864058948569</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>32.32302533333333</v>
+        <v>23.238438</v>
       </c>
       <c r="H17">
-        <v>96.969076</v>
+        <v>69.71531400000001</v>
       </c>
       <c r="I17">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="J17">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>2200.885246058192</v>
+        <v>1528.184757154602</v>
       </c>
       <c r="R17">
-        <v>19807.96721452372</v>
+        <v>13753.66281439142</v>
       </c>
       <c r="S17">
-        <v>0.04345165228535192</v>
+        <v>0.03380724949325808</v>
       </c>
       <c r="T17">
-        <v>0.04345165228535191</v>
+        <v>0.03380724949325808</v>
       </c>
     </row>
   </sheetData>
